--- a/Excel/ScenarioPageText.xlsx
+++ b/Excel/ScenarioPageText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\Perforce\wk_program_4958\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2964427-8253-4A44-B6EB-26AEC2C092FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C874E5-0AE4-4E89-B6B8-F148D505747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="492" yWindow="1740" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioPageText" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <cols>
     <col min="1" max="1" width="7.69921875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="84.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>

--- a/Excel/ScenarioPageText.xlsx
+++ b/Excel/ScenarioPageText.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C874E5-0AE4-4E89-B6B8-F148D505747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F978A9-33AA-43A1-8A98-9F11E2D1ECD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="492" yWindow="1740" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioPageText" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>PageId</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -35,18 +35,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>첫번째 줄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>두번째 줄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>세번째 줄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Text</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -68,6 +56,78 @@
   </si>
   <si>
     <t>첫번째 줄 첫번째 줄 첫번째 줄 첫번째 줄 첫번째 줄 첫번째 줄 첫번째 줄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 페이지 첫번째 줄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 페이지 두번째 줄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 페이지 세번째 줄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>세번째 페이지 첫번째 줄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>세번째 페이지 두번째 줄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>세번째 페이지 세번째 줄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네번째 페이지 첫번째 줄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네번째 페이지 두번째 줄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네번째 페이지 세번째 줄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다섯번째 페이지 첫번째 줄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다섯번째 페이지 두번째 줄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다섯번째 페이지 세번째 줄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>여섯번째 페이지 첫번째 줄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>여섯번째 페이지 두번째 줄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>여섯번째 페이지 세번째 줄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일곱번째 페이지 첫번째 줄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일곱번째 페이지 두번째 줄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일곱번째 페이지 세번째 줄</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -459,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -481,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -492,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -503,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -514,7 +574,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -525,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -536,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -547,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -558,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -569,7 +629,172 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <v>1000003</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <v>1000003</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <v>1000003</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <v>1000004</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>1000004</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>1000004</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>1000005</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>1000005</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <v>1000005</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <v>1000006</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <v>1000006</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <v>1000006</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <v>1000007</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <v>1000007</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <v>1000007</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ScenarioPageText.xlsx
+++ b/Excel/ScenarioPageText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F978A9-33AA-43A1-8A98-9F11E2D1ECD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDE8572-B0B0-42F6-ABDD-55614D59C6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>PageId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Order</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -128,6 +124,14 @@
   </si>
   <si>
     <t>일곱번째 페이지 세번째 줄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniqueId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -519,282 +523,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.69921875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="8.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1000001</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C2" s="3">
+        <v>10001</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1000001</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C3" s="3">
+        <v>10002</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1000001</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C4" s="3">
+        <v>10003</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>1000001</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C5" s="3">
+        <v>10004</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>1000001</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C6" s="3">
+        <v>10005</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>1000002</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C7" s="3">
+        <v>10006</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>1000002</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C8" s="3">
+        <v>10007</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>1000002</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C9" s="3">
+        <v>10008</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>1000003</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C10" s="3">
+        <v>10009</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>1000003</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C11" s="3">
+        <v>10010</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>1000003</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C12" s="3">
+        <v>10011</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>1000004</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C13" s="3">
+        <v>10012</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>1000004</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C14" s="3">
+        <v>10013</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>1000004</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C15" s="3">
+        <v>10014</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>1000005</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C16" s="3">
+        <v>10015</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>1000005</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C17" s="3">
+        <v>10016</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>1000005</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C18" s="3">
+        <v>10017</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>1000006</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C19" s="3">
+        <v>10018</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>1000006</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C20" s="3">
+        <v>10019</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>1000006</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C21" s="3">
+        <v>10020</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>1000007</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C22" s="3">
+        <v>10021</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>1000007</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C23" s="3">
+        <v>10022</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>1000007</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
+      <c r="C24" s="3">
+        <v>10023</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
